--- a/dataset/ship_dataset.xlsx
+++ b/dataset/ship_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kay/Documents/Kay Eugenia Purnama/1. NUS/Y2S1/PSA/PSA_CodeSprint/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A3F250-19F5-324C-AE7D-234ACDF5B05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7C6F07-A2E6-A341-86AB-4B8B0695DCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14700" yWindow="740" windowWidth="14700" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$K$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="32">
   <si>
     <t>Shipping Line</t>
   </si>
@@ -107,7 +107,19 @@
     <t>Hapag-Lloyd</t>
   </si>
   <si>
+    <t>Maersk</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
   <si>
     <t>Japan</t>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="K15" sqref="A14:K15"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -503,13 +515,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -518,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -853,60 +865,60 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>155</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>142900</v>
+        <v>186300</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2">
-        <v>45219.905771646751</v>
+        <v>45217.912960087553</v>
       </c>
       <c r="G11" s="2">
-        <v>45245.905771648213</v>
+        <v>45258.91296008919</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>429</v>
+        <v>863</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>137700</v>
+        <v>159700</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F12" s="2">
-        <v>45222.905771646772</v>
+        <v>45206.912960087568</v>
       </c>
       <c r="G12" s="2">
-        <v>45229.90577164822</v>
+        <v>45231.912960089197</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -915,33 +927,33 @@
         <v>21</v>
       </c>
       <c r="J12">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>377</v>
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>184900</v>
+        <v>142500</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>45225.905771646787</v>
+        <v>45212.912960087582</v>
       </c>
       <c r="G13" s="2">
-        <v>45258.905771648249</v>
+        <v>45254.912960089227</v>
       </c>
       <c r="H13" t="s">
         <v>11</v>
@@ -950,14 +962,5159 @@
         <v>12</v>
       </c>
       <c r="J13">
+        <v>35</v>
+      </c>
+      <c r="K13">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>171100</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45221.912960087597</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45245.912960089227</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14">
+        <v>36</v>
+      </c>
+      <c r="K14">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>165500</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45220.912960087619</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45237.912960089263</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>156100</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45214.91296008764</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45242.91296008927</v>
+      </c>
+      <c r="H16" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>193500</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45207.912960087648</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45239.912960089277</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18">
+        <v>139800</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>45199.912960087662</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45229.912960089307</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18">
+        <v>44</v>
+      </c>
+      <c r="K18">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>174800</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="2">
+        <v>45221.912960087677</v>
+      </c>
+      <c r="G19" s="2">
+        <v>45247.912960089307</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19">
+        <v>28</v>
+      </c>
+      <c r="K19">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>125200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>45214.912960087699</v>
+      </c>
+      <c r="G20" s="2">
+        <v>45252.912960089343</v>
+      </c>
+      <c r="H20" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>121600</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>45216.91296008772</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45231.91296008935</v>
+      </c>
+      <c r="H21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>102200</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="2">
+        <v>45202.912960087728</v>
+      </c>
+      <c r="G22" s="2">
+        <v>45256.912960089358</v>
+      </c>
+      <c r="H22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>27</v>
+      </c>
+      <c r="K22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>181000</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="2">
+        <v>45213.912960087742</v>
+      </c>
+      <c r="G23" s="2">
+        <v>45252.912960089387</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>141400</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2">
+        <v>45200.912960087757</v>
+      </c>
+      <c r="G24" s="2">
+        <v>45241.912960089401</v>
+      </c>
+      <c r="H24" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="K13">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>137000</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="2">
+        <v>45227.912960087779</v>
+      </c>
+      <c r="G25" s="2">
+        <v>45246.912960089408</v>
+      </c>
+      <c r="H25" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J25">
+        <v>39</v>
+      </c>
+      <c r="K25">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>161900</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="2">
+        <v>45219.9129600878</v>
+      </c>
+      <c r="G26" s="2">
+        <v>45251.91296008943</v>
+      </c>
+      <c r="H26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>144000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2">
+        <v>45219.912960087822</v>
+      </c>
+      <c r="G27" s="2">
+        <v>45243.912960089438</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" t="s">
+        <v>21</v>
+      </c>
+      <c r="J27">
+        <v>31</v>
+      </c>
+      <c r="K27">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>123200</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
+        <v>45213.912960087837</v>
+      </c>
+      <c r="G28" s="2">
+        <v>45249.912960089459</v>
+      </c>
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>190200</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2">
+        <v>45215.912960087837</v>
+      </c>
+      <c r="G29" s="2">
+        <v>45232.912960089481</v>
+      </c>
+      <c r="H29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>124300</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>45213.912960087873</v>
+      </c>
+      <c r="G30" s="2">
+        <v>45233.912960089488</v>
+      </c>
+      <c r="H30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>120700</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2">
+        <v>45199.91296008788</v>
+      </c>
+      <c r="G31" s="2">
+        <v>45231.91296008951</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31">
+        <v>15</v>
+      </c>
+      <c r="K31">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>110400</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="2">
+        <v>45222.912960087902</v>
+      </c>
+      <c r="G32" s="2">
+        <v>45232.912960089518</v>
+      </c>
+      <c r="H32" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>138400</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="2">
+        <v>45225.912960087917</v>
+      </c>
+      <c r="G33" s="2">
+        <v>45253.912960089539</v>
+      </c>
+      <c r="H33" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>127600</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45223.912960087931</v>
+      </c>
+      <c r="G34" s="2">
+        <v>45254.912960089547</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34">
+        <v>36</v>
+      </c>
+      <c r="K34">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>120100</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45201.912960087953</v>
+      </c>
+      <c r="G35" s="2">
+        <v>45243.912960089569</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>107200</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="2">
+        <v>45228.912960087961</v>
+      </c>
+      <c r="G36" s="2">
+        <v>45232.912960089583</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36">
+        <v>39</v>
+      </c>
+      <c r="K36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>156700</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2">
+        <v>45219.912960087982</v>
+      </c>
+      <c r="G37" s="2">
+        <v>45244.912960089598</v>
+      </c>
+      <c r="H37" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" t="s">
+        <v>21</v>
+      </c>
+      <c r="J37">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>146300</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="2">
+        <v>45202.912960087997</v>
+      </c>
+      <c r="G38" s="2">
+        <v>45257.912960089619</v>
+      </c>
+      <c r="H38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>199800</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2">
+        <v>45220.912960088011</v>
+      </c>
+      <c r="G39" s="2">
+        <v>45232.912960089627</v>
+      </c>
+      <c r="H39" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39">
+        <v>12</v>
+      </c>
+      <c r="K39">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>169900</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="2">
+        <v>45213.912960088033</v>
+      </c>
+      <c r="G40" s="2">
+        <v>45233.912960089663</v>
+      </c>
+      <c r="H40" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40">
+        <v>28</v>
+      </c>
+      <c r="K40">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41">
+        <v>158200</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="2">
+        <v>45224.912960088041</v>
+      </c>
+      <c r="G41" s="2">
+        <v>45250.912960089663</v>
+      </c>
+      <c r="H41" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>42</v>
+      </c>
+      <c r="K41">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>114600</v>
+      </c>
+      <c r="D42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="2">
+        <v>45200.912960088062</v>
+      </c>
+      <c r="G42" s="2">
+        <v>45241.912960089678</v>
+      </c>
+      <c r="H42" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42">
+        <v>14</v>
+      </c>
+      <c r="K42">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <v>130100</v>
+      </c>
+      <c r="D43" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="2">
+        <v>45212.912960088077</v>
+      </c>
+      <c r="G43" s="2">
+        <v>45249.912960089699</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>21</v>
+      </c>
+      <c r="J43">
+        <v>18</v>
+      </c>
+      <c r="K43">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>167400</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2">
+        <v>45221.912960088091</v>
+      </c>
+      <c r="G44" s="2">
+        <v>45256.912960089707</v>
+      </c>
+      <c r="H44" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" t="s">
+        <v>21</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>153200</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2">
+        <v>45208.912960088113</v>
+      </c>
+      <c r="G45" s="2">
+        <v>45233.912960089721</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>18</v>
+      </c>
+      <c r="K45">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46">
+        <v>172200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="2">
+        <v>45218.912960088128</v>
+      </c>
+      <c r="G46" s="2">
+        <v>45229.912960089743</v>
+      </c>
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J46">
+        <v>25</v>
+      </c>
+      <c r="K46">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47">
+        <v>105100</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="2">
+        <v>45218.912960088142</v>
+      </c>
+      <c r="G47" s="2">
+        <v>45253.912960089758</v>
+      </c>
+      <c r="H47" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47">
+        <v>21</v>
+      </c>
+      <c r="K47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>143300</v>
+      </c>
+      <c r="D48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="2">
+        <v>45222.912960088157</v>
+      </c>
+      <c r="G48" s="2">
+        <v>45257.912960089758</v>
+      </c>
+      <c r="H48" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48">
+        <v>17</v>
+      </c>
+      <c r="K48">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>131200</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="2">
+        <v>45200.912960088172</v>
+      </c>
+      <c r="G49" s="2">
+        <v>45258.912960089787</v>
+      </c>
+      <c r="H49" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" t="s">
+        <v>21</v>
+      </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50">
+        <v>138400</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="2">
+        <v>45224.912960088193</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45246.912960089801</v>
+      </c>
+      <c r="H50" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50">
+        <v>36</v>
+      </c>
+      <c r="K50">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>148000</v>
+      </c>
+      <c r="D51" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="2">
+        <v>45221.912960088208</v>
+      </c>
+      <c r="G51" s="2">
+        <v>45236.912960089823</v>
+      </c>
+      <c r="H51" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" t="s">
+        <v>21</v>
+      </c>
+      <c r="J51">
+        <v>11</v>
+      </c>
+      <c r="K51">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52">
+        <v>150700</v>
+      </c>
+      <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="2">
+        <v>45221.912960088222</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45256.912960089838</v>
+      </c>
+      <c r="H52" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>48</v>
+      </c>
+      <c r="K52">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53">
+        <v>132400</v>
+      </c>
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="2">
+        <v>45210.91296008823</v>
+      </c>
+      <c r="G53" s="2">
+        <v>45232.912960089852</v>
+      </c>
+      <c r="H53" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53">
+        <v>23</v>
+      </c>
+      <c r="K53">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54">
+        <v>174600</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="2">
+        <v>45212.912960088252</v>
+      </c>
+      <c r="G54" s="2">
+        <v>45229.91296008986</v>
+      </c>
+      <c r="H54" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+      <c r="K54">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>128100</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2">
+        <v>45202.912960088273</v>
+      </c>
+      <c r="G55" s="2">
+        <v>45236.912960089881</v>
+      </c>
+      <c r="H55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55">
+        <v>44</v>
+      </c>
+      <c r="K55">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>188100</v>
+      </c>
+      <c r="D56" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="2">
+        <v>45212.912960088288</v>
+      </c>
+      <c r="G56" s="2">
+        <v>45253.912960089903</v>
+      </c>
+      <c r="H56" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56">
+        <v>21</v>
+      </c>
+      <c r="K56">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>147200</v>
+      </c>
+      <c r="D57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2">
+        <v>45203.912960088302</v>
+      </c>
+      <c r="G57" s="2">
+        <v>45251.91296008991</v>
+      </c>
+      <c r="H57" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <v>36</v>
+      </c>
+      <c r="K57">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>173300</v>
+      </c>
+      <c r="D58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="2">
+        <v>45219.91296008831</v>
+      </c>
+      <c r="G58" s="2">
+        <v>45229.912960089932</v>
+      </c>
+      <c r="H58" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58">
+        <v>28</v>
+      </c>
+      <c r="K58">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>171800</v>
+      </c>
+      <c r="D59" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2">
+        <v>45228.912960088332</v>
+      </c>
+      <c r="G59" s="2">
+        <v>45258.91296008994</v>
+      </c>
+      <c r="H59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" t="s">
+        <v>21</v>
+      </c>
+      <c r="J59">
+        <v>5</v>
+      </c>
+      <c r="K59">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>152000</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="2">
+        <v>45219.912960088353</v>
+      </c>
+      <c r="G60" s="2">
+        <v>45244.912960089947</v>
+      </c>
+      <c r="H60" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>38</v>
+      </c>
+      <c r="K60">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>106500</v>
+      </c>
+      <c r="D61" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="2">
+        <v>45203.912960088353</v>
+      </c>
+      <c r="G61" s="2">
+        <v>45257.912960089983</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>21</v>
+      </c>
+      <c r="J61">
+        <v>7</v>
+      </c>
+      <c r="K61">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62">
+        <v>157500</v>
+      </c>
+      <c r="D62" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="2">
+        <v>45224.912960088383</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45237.912960089991</v>
+      </c>
+      <c r="H62" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62">
+        <v>20</v>
+      </c>
+      <c r="K62">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>165000</v>
+      </c>
+      <c r="D63" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="2">
+        <v>45206.91296008839</v>
+      </c>
+      <c r="G63" s="2">
+        <v>45246.912960090012</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>21</v>
+      </c>
+      <c r="J63">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64">
+        <v>196500</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="2">
+        <v>45201.912960088397</v>
+      </c>
+      <c r="G64" s="2">
+        <v>45246.91296009002</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>35</v>
+      </c>
+      <c r="K64">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65">
+        <v>161600</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2">
+        <v>45199.912960088433</v>
+      </c>
+      <c r="G65" s="2">
+        <v>45254.912960090027</v>
+      </c>
+      <c r="H65" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J65">
+        <v>4</v>
+      </c>
+      <c r="K65">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>107200</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2">
+        <v>45210.912960088441</v>
+      </c>
+      <c r="G66" s="2">
+        <v>45230.912960090063</v>
+      </c>
+      <c r="H66" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" t="s">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>33</v>
+      </c>
+      <c r="K66">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>173900</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="2">
+        <v>45222.912960088463</v>
+      </c>
+      <c r="G67" s="2">
+        <v>45249.912960090071</v>
+      </c>
+      <c r="H67" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" t="s">
+        <v>21</v>
+      </c>
+      <c r="J67">
+        <v>6</v>
+      </c>
+      <c r="K67">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>156200</v>
+      </c>
+      <c r="D68" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" s="2">
+        <v>45217.91296008847</v>
+      </c>
+      <c r="G68" s="2">
+        <v>45235.912960090078</v>
+      </c>
+      <c r="H68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68">
+        <v>19</v>
+      </c>
+      <c r="K68">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>111300</v>
+      </c>
+      <c r="D69" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2">
+        <v>45222.912960088499</v>
+      </c>
+      <c r="G69" s="2">
+        <v>45238.912960090107</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+      <c r="J69">
+        <v>21</v>
+      </c>
+      <c r="K69">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>101600</v>
+      </c>
+      <c r="D70" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="2">
+        <v>45221.912960088514</v>
+      </c>
+      <c r="G70" s="2">
+        <v>45248.912960090107</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>190600</v>
+      </c>
+      <c r="D71" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>20</v>
+      </c>
+      <c r="F71" s="2">
+        <v>45208.912960088521</v>
+      </c>
+      <c r="G71" s="2">
+        <v>45247.912960090129</v>
+      </c>
+      <c r="H71" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71">
+        <v>31</v>
+      </c>
+      <c r="K71">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72">
+        <v>188700</v>
+      </c>
+      <c r="D72" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2">
+        <v>45218.912960088543</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45255.912960090151</v>
+      </c>
+      <c r="H72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72">
+        <v>6</v>
+      </c>
+      <c r="K72">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73">
+        <v>136700</v>
+      </c>
+      <c r="D73" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>20</v>
+      </c>
+      <c r="F73" s="2">
+        <v>45214.91296008855</v>
+      </c>
+      <c r="G73" s="2">
+        <v>45252.912960090172</v>
+      </c>
+      <c r="H73" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" t="s">
+        <v>21</v>
+      </c>
+      <c r="J73">
+        <v>31</v>
+      </c>
+      <c r="K73">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>162600</v>
+      </c>
+      <c r="D74" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="2">
+        <v>45228.912960088579</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45255.912960090172</v>
+      </c>
+      <c r="H74" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74">
+        <v>42</v>
+      </c>
+      <c r="K74">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>170300</v>
+      </c>
+      <c r="D75" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="2">
+        <v>45225.912960088594</v>
+      </c>
+      <c r="G75" s="2">
+        <v>45237.912960090187</v>
+      </c>
+      <c r="H75" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>109400</v>
+      </c>
+      <c r="D76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="2">
+        <v>45204.912960088601</v>
+      </c>
+      <c r="G76" s="2">
+        <v>45239.912960090209</v>
+      </c>
+      <c r="H76" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76">
+        <v>9</v>
+      </c>
+      <c r="K76">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77">
+        <v>182400</v>
+      </c>
+      <c r="D77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="2">
+        <v>45202.912960088623</v>
+      </c>
+      <c r="G77" s="2">
+        <v>45253.912960090223</v>
+      </c>
+      <c r="H77" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
+        <v>34</v>
+      </c>
+      <c r="K77">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>123300</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="2">
+        <v>45228.912960088637</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45250.912960090252</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78">
+        <v>33</v>
+      </c>
+      <c r="K78">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>166000</v>
+      </c>
+      <c r="D79" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="2">
+        <v>45199.912960088659</v>
+      </c>
+      <c r="G79" s="2">
+        <v>45234.912960090252</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79">
+        <v>37</v>
+      </c>
+      <c r="K79">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>118800</v>
+      </c>
+      <c r="D80" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2">
+        <v>45227.912960088674</v>
+      </c>
+      <c r="G80" s="2">
+        <v>45240.912960090267</v>
+      </c>
+      <c r="H80" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J80">
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>196500</v>
+      </c>
+      <c r="D81" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="2">
+        <v>45204.912960088681</v>
+      </c>
+      <c r="G81" s="2">
+        <v>45245.912960090289</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" t="s">
+        <v>12</v>
+      </c>
+      <c r="J81">
+        <v>34</v>
+      </c>
+      <c r="K81">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82">
+        <v>163500</v>
+      </c>
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="2">
+        <v>45225.912960088703</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45255.912960090303</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82">
+        <v>11</v>
+      </c>
+      <c r="K82">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>195800</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="2">
+        <v>45209.912960088717</v>
+      </c>
+      <c r="G83" s="2">
+        <v>45243.912960090311</v>
+      </c>
+      <c r="H83" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83">
+        <v>46</v>
+      </c>
+      <c r="K83">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>194900</v>
+      </c>
+      <c r="D84" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="2">
+        <v>45228.912960088717</v>
+      </c>
+      <c r="G84" s="2">
+        <v>45255.912960090332</v>
+      </c>
+      <c r="H84" t="s">
+        <v>11</v>
+      </c>
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84">
+        <v>25</v>
+      </c>
+      <c r="K84">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>182900</v>
+      </c>
+      <c r="D85" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="2">
+        <v>45205.912960088754</v>
+      </c>
+      <c r="G85" s="2">
+        <v>45246.912960090347</v>
+      </c>
+      <c r="H85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I85" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85">
+        <v>32</v>
+      </c>
+      <c r="K85">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>105000</v>
+      </c>
+      <c r="D86" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="2">
+        <v>45220.912960088761</v>
+      </c>
+      <c r="G86" s="2">
+        <v>45231.912960090362</v>
+      </c>
+      <c r="H86" t="s">
+        <v>11</v>
+      </c>
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86">
+        <v>28</v>
+      </c>
+      <c r="K86">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>113400</v>
+      </c>
+      <c r="D87" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" s="2">
+        <v>45215.912960088783</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45255.912960090383</v>
+      </c>
+      <c r="H87" t="s">
+        <v>11</v>
+      </c>
+      <c r="I87" t="s">
+        <v>21</v>
+      </c>
+      <c r="J87">
+        <v>9</v>
+      </c>
+      <c r="K87">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>105200</v>
+      </c>
+      <c r="D88" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="2">
+        <v>45215.912960088797</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45255.912960090391</v>
+      </c>
+      <c r="H88" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" t="s">
+        <v>21</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89">
+        <v>131100</v>
+      </c>
+      <c r="D89" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="2">
+        <v>45222.912960088797</v>
+      </c>
+      <c r="G89" s="2">
+        <v>45250.912960090413</v>
+      </c>
+      <c r="H89" t="s">
+        <v>11</v>
+      </c>
+      <c r="I89" t="s">
+        <v>21</v>
+      </c>
+      <c r="J89">
+        <v>48</v>
+      </c>
+      <c r="K89">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>130100</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="2">
+        <v>45205.912960088819</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45244.912960090427</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>21</v>
+      </c>
+      <c r="J90">
+        <v>20</v>
+      </c>
+      <c r="K90">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91">
+        <v>184500</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="2">
+        <v>45217.912960088841</v>
+      </c>
+      <c r="G91" s="2">
+        <v>45256.912960090442</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91">
+        <v>24</v>
+      </c>
+      <c r="K91">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>174600</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="2">
+        <v>45215.912960088863</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45257.912960090449</v>
+      </c>
+      <c r="H92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" t="s">
+        <v>12</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93">
+        <v>161800</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="2">
+        <v>45204.912960088863</v>
+      </c>
+      <c r="G93" s="2">
+        <v>45229.912960090478</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93">
+        <v>17</v>
+      </c>
+      <c r="K93">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>153700</v>
+      </c>
+      <c r="D94" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="2">
+        <v>45222.912960088892</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45236.912960090493</v>
+      </c>
+      <c r="H94" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94">
+        <v>15</v>
+      </c>
+      <c r="K94">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>141400</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="2">
+        <v>45222.912960088906</v>
+      </c>
+      <c r="G95" s="2">
+        <v>45248.912960090602</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95">
+        <v>15</v>
+      </c>
+      <c r="K95">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>136200</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="2">
+        <v>45227.912960088921</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45241.912960090624</v>
+      </c>
+      <c r="H96" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" t="s">
+        <v>21</v>
+      </c>
+      <c r="J96">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97">
+        <v>165500</v>
+      </c>
+      <c r="D97" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="2">
+        <v>45214.912960088943</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45253.912960090638</v>
+      </c>
+      <c r="H97" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J97">
+        <v>14</v>
+      </c>
+      <c r="K97">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>160400</v>
+      </c>
+      <c r="D98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="2">
+        <v>45208.912960088957</v>
+      </c>
+      <c r="G98" s="2">
+        <v>45239.912960090653</v>
+      </c>
+      <c r="H98" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" t="s">
+        <v>21</v>
+      </c>
+      <c r="J98">
+        <v>14</v>
+      </c>
+      <c r="K98">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>178700</v>
+      </c>
+      <c r="D99" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="2">
+        <v>45200.912960088972</v>
+      </c>
+      <c r="G99" s="2">
+        <v>45233.912960090667</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>21</v>
+      </c>
+      <c r="J99">
+        <v>21</v>
+      </c>
+      <c r="K99">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>136600</v>
+      </c>
+      <c r="D100" t="s">
+        <v>9</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
+      </c>
+      <c r="F100" s="2">
+        <v>45210.912960088979</v>
+      </c>
+      <c r="G100" s="2">
+        <v>45249.912960090682</v>
+      </c>
+      <c r="H100" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" t="s">
+        <v>21</v>
+      </c>
+      <c r="J100">
+        <v>14</v>
+      </c>
+      <c r="K100">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101">
+        <v>161900</v>
+      </c>
+      <c r="D101" t="s">
+        <v>9</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2">
+        <v>45213.912960089008</v>
+      </c>
+      <c r="G101" s="2">
+        <v>45252.912960090704</v>
+      </c>
+      <c r="H101" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101">
+        <v>5</v>
+      </c>
+      <c r="K101">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>126800</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="2">
+        <v>45200.905771645193</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45247.905771646911</v>
+      </c>
+      <c r="H102" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102">
+        <v>35</v>
+      </c>
+      <c r="K102">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>151600</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="2">
+        <v>45227.905771645448</v>
+      </c>
+      <c r="G103" s="2">
+        <v>45250.905771646932</v>
+      </c>
+      <c r="H103" t="s">
+        <v>11</v>
+      </c>
+      <c r="I103" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103">
+        <v>34</v>
+      </c>
+      <c r="K103">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>137800</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="2">
+        <v>45219.905771645477</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45230.905771646947</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I104" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>22</v>
+      </c>
+      <c r="C105">
+        <v>185900</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="2">
+        <v>45222.905771645499</v>
+      </c>
+      <c r="G105" s="2">
+        <v>45252.905771646969</v>
+      </c>
+      <c r="H105" t="s">
+        <v>16</v>
+      </c>
+      <c r="I105" t="s">
+        <v>12</v>
+      </c>
+      <c r="J105">
+        <v>17</v>
+      </c>
+      <c r="K105">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106">
+        <v>128400</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="2">
+        <v>45222.905771645514</v>
+      </c>
+      <c r="G106" s="2">
+        <v>45254.905771646983</v>
+      </c>
+      <c r="H106" t="s">
+        <v>11</v>
+      </c>
+      <c r="I106" t="s">
+        <v>17</v>
+      </c>
+      <c r="J106">
+        <v>46</v>
+      </c>
+      <c r="K106">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>171300</v>
+      </c>
+      <c r="D107" t="s">
+        <v>26</v>
+      </c>
+      <c r="E107" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="2">
+        <v>45221.905771645543</v>
+      </c>
+      <c r="G107" s="2">
+        <v>45241.905771646991</v>
+      </c>
+      <c r="H107" t="s">
+        <v>11</v>
+      </c>
+      <c r="I107" t="s">
+        <v>17</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>154500</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="2">
+        <v>45211.905771645543</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45230.905771647012</v>
+      </c>
+      <c r="H108" t="s">
+        <v>11</v>
+      </c>
+      <c r="I108" t="s">
+        <v>17</v>
+      </c>
+      <c r="J108">
+        <v>6</v>
+      </c>
+      <c r="K108">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>150600</v>
+      </c>
+      <c r="D109" t="s">
+        <v>27</v>
+      </c>
+      <c r="E109" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="2">
+        <v>45201.905771645557</v>
+      </c>
+      <c r="G109" s="2">
+        <v>45248.905771647027</v>
+      </c>
+      <c r="H109" t="s">
+        <v>16</v>
+      </c>
+      <c r="I109" t="s">
+        <v>17</v>
+      </c>
+      <c r="J109">
+        <v>28</v>
+      </c>
+      <c r="K109">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>164000</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="E110" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="2">
+        <v>45216.905771645623</v>
+      </c>
+      <c r="G110" s="2">
+        <v>45240.905771647063</v>
+      </c>
+      <c r="H110" t="s">
+        <v>16</v>
+      </c>
+      <c r="I110" t="s">
+        <v>12</v>
+      </c>
+      <c r="J110">
+        <v>23</v>
+      </c>
+      <c r="K110">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>141800</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="2">
+        <v>45212.905771645659</v>
+      </c>
+      <c r="G111" s="2">
+        <v>45251.905771647107</v>
+      </c>
+      <c r="H111" t="s">
+        <v>11</v>
+      </c>
+      <c r="I111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J111">
+        <v>21</v>
+      </c>
+      <c r="K111">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>164300</v>
+      </c>
+      <c r="D112" t="s">
+        <v>26</v>
+      </c>
+      <c r="E112" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="2">
+        <v>45215.905771645666</v>
+      </c>
+      <c r="G112" s="2">
+        <v>45230.905771647122</v>
+      </c>
+      <c r="H112" t="s">
+        <v>11</v>
+      </c>
+      <c r="I112" t="s">
+        <v>21</v>
+      </c>
+      <c r="J112">
+        <v>23</v>
+      </c>
+      <c r="K112">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113">
+        <v>135600</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="2">
+        <v>45219.905771645681</v>
+      </c>
+      <c r="G113" s="2">
+        <v>45251.905771647129</v>
+      </c>
+      <c r="H113" t="s">
+        <v>11</v>
+      </c>
+      <c r="I113" t="s">
+        <v>21</v>
+      </c>
+      <c r="J113">
+        <v>13</v>
+      </c>
+      <c r="K113">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>125200</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="2">
+        <v>45216.905771645703</v>
+      </c>
+      <c r="G114" s="2">
+        <v>45257.905771647143</v>
+      </c>
+      <c r="H114" t="s">
+        <v>11</v>
+      </c>
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114">
+        <v>29</v>
+      </c>
+      <c r="K114">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>104700</v>
+      </c>
+      <c r="D115" t="s">
+        <v>27</v>
+      </c>
+      <c r="E115" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="2">
+        <v>45213.905771645717</v>
+      </c>
+      <c r="G115" s="2">
+        <v>45246.905771647173</v>
+      </c>
+      <c r="H115" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115">
+        <v>23</v>
+      </c>
+      <c r="K115">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>150200</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="2">
+        <v>45202.905771645732</v>
+      </c>
+      <c r="G116" s="2">
+        <v>45237.905771647173</v>
+      </c>
+      <c r="H116" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" t="s">
+        <v>21</v>
+      </c>
+      <c r="J116">
+        <v>2</v>
+      </c>
+      <c r="K116">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117">
+        <v>104800</v>
+      </c>
+      <c r="D117" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="2">
+        <v>45208.905771645783</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45242.905771647223</v>
+      </c>
+      <c r="H117" t="s">
+        <v>16</v>
+      </c>
+      <c r="I117" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117">
+        <v>40</v>
+      </c>
+      <c r="K117">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>23</v>
+      </c>
+      <c r="C118">
+        <v>114900</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="2">
+        <v>45203.905771645797</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45233.905771647253</v>
+      </c>
+      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="I118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J118">
+        <v>31</v>
+      </c>
+      <c r="K118">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119">
+        <v>121200</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="2">
+        <v>45225.905771645819</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45237.905771647267</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+      <c r="I119" t="s">
+        <v>12</v>
+      </c>
+      <c r="J119">
+        <v>16</v>
+      </c>
+      <c r="K119">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>143700</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="2">
+        <v>45199.905771645848</v>
+      </c>
+      <c r="G120" s="2">
+        <v>45253.905771647289</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+      <c r="I120" t="s">
+        <v>12</v>
+      </c>
+      <c r="J120">
+        <v>25</v>
+      </c>
+      <c r="K120">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>137000</v>
+      </c>
+      <c r="D121" t="s">
+        <v>27</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="2">
+        <v>45200.905771645863</v>
+      </c>
+      <c r="G121" s="2">
+        <v>45248.905771647303</v>
+      </c>
+      <c r="H121" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121">
+        <v>39</v>
+      </c>
+      <c r="K121">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>131500</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="2">
+        <v>45211.905771645877</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45248.905771647333</v>
+      </c>
+      <c r="H122" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122">
+        <v>7</v>
+      </c>
+      <c r="K122">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>197000</v>
+      </c>
+      <c r="D123" t="s">
+        <v>27</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="2">
+        <v>45203.905771645892</v>
+      </c>
+      <c r="G123" s="2">
+        <v>45230.90577164734</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+      <c r="I123" t="s">
+        <v>17</v>
+      </c>
+      <c r="J123">
+        <v>35</v>
+      </c>
+      <c r="K123">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>168700</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="2">
+        <v>45205.905771645906</v>
+      </c>
+      <c r="G124" s="2">
+        <v>45251.905771647347</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+      <c r="I124" t="s">
+        <v>21</v>
+      </c>
+      <c r="J124">
+        <v>30</v>
+      </c>
+      <c r="K124">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125">
+        <v>130500</v>
+      </c>
+      <c r="D125" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="2">
+        <v>45226.905771645943</v>
+      </c>
+      <c r="G125" s="2">
+        <v>45233.905771647384</v>
+      </c>
+      <c r="H125" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125">
+        <v>41</v>
+      </c>
+      <c r="K125">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>179900</v>
+      </c>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="2">
+        <v>45210.90577164595</v>
+      </c>
+      <c r="G126" s="2">
+        <v>45251.905771647398</v>
+      </c>
+      <c r="H126" t="s">
+        <v>16</v>
+      </c>
+      <c r="I126" t="s">
+        <v>21</v>
+      </c>
+      <c r="J126">
+        <v>13</v>
+      </c>
+      <c r="K126">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127">
+        <v>146200</v>
+      </c>
+      <c r="D127" t="s">
+        <v>24</v>
+      </c>
+      <c r="E127" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="2">
+        <v>45202.905771645957</v>
+      </c>
+      <c r="G127" s="2">
+        <v>45240.905771647413</v>
+      </c>
+      <c r="H127" t="s">
+        <v>16</v>
+      </c>
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127">
+        <v>18</v>
+      </c>
+      <c r="K127">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>129300</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="2">
+        <v>45204.905771645987</v>
+      </c>
+      <c r="G128" s="2">
+        <v>45251.905771647427</v>
+      </c>
+      <c r="H128" t="s">
+        <v>11</v>
+      </c>
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128">
+        <v>38</v>
+      </c>
+      <c r="K128">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>134900</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="2">
+        <v>45228.905771645987</v>
+      </c>
+      <c r="G129" s="2">
+        <v>45256.905771647442</v>
+      </c>
+      <c r="H129" t="s">
+        <v>16</v>
+      </c>
+      <c r="I129" t="s">
+        <v>21</v>
+      </c>
+      <c r="J129">
+        <v>23</v>
+      </c>
+      <c r="K129">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>22</v>
+      </c>
+      <c r="C130">
+        <v>169300</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="2">
+        <v>45201.905771646008</v>
+      </c>
+      <c r="G130" s="2">
+        <v>45235.905771647464</v>
+      </c>
+      <c r="H130" t="s">
+        <v>11</v>
+      </c>
+      <c r="I130" t="s">
+        <v>12</v>
+      </c>
+      <c r="J130">
+        <v>17</v>
+      </c>
+      <c r="K130">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>23</v>
+      </c>
+      <c r="C131">
+        <v>178300</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="2">
+        <v>45202.905771646023</v>
+      </c>
+      <c r="G131" s="2">
+        <v>45241.905771647464</v>
+      </c>
+      <c r="H131" t="s">
+        <v>16</v>
+      </c>
+      <c r="I131" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131">
+        <v>31</v>
+      </c>
+      <c r="K131">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132">
+        <v>160300</v>
+      </c>
+      <c r="D132" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="2">
+        <v>45220.905771646067</v>
+      </c>
+      <c r="G132" s="2">
+        <v>45229.905771647507</v>
+      </c>
+      <c r="H132" t="s">
+        <v>11</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132">
+        <v>18</v>
+      </c>
+      <c r="K132">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>159700</v>
+      </c>
+      <c r="D133" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="2">
+        <v>45204.905771646088</v>
+      </c>
+      <c r="G133" s="2">
+        <v>45230.905771647544</v>
+      </c>
+      <c r="H133" t="s">
+        <v>16</v>
+      </c>
+      <c r="I133" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133">
+        <v>12</v>
+      </c>
+      <c r="K133">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>104500</v>
+      </c>
+      <c r="D134" t="s">
+        <v>27</v>
+      </c>
+      <c r="E134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="2">
+        <v>45210.905771646118</v>
+      </c>
+      <c r="G134" s="2">
+        <v>45257.905771647573</v>
+      </c>
+      <c r="H134" t="s">
+        <v>16</v>
+      </c>
+      <c r="I134" t="s">
+        <v>12</v>
+      </c>
+      <c r="J134">
+        <v>28</v>
+      </c>
+      <c r="K134">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>138200</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="E135" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="2">
+        <v>45206.905771646132</v>
+      </c>
+      <c r="G135" s="2">
+        <v>45250.90577164758</v>
+      </c>
+      <c r="H135" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" t="s">
+        <v>17</v>
+      </c>
+      <c r="J135">
+        <v>37</v>
+      </c>
+      <c r="K135">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>22</v>
+      </c>
+      <c r="C136">
+        <v>194900</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="2">
+        <v>45218.905771646183</v>
+      </c>
+      <c r="G136" s="2">
+        <v>45233.905771647631</v>
+      </c>
+      <c r="H136" t="s">
+        <v>11</v>
+      </c>
+      <c r="I136" t="s">
+        <v>17</v>
+      </c>
+      <c r="J136">
+        <v>18</v>
+      </c>
+      <c r="K136">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137">
+        <v>190200</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="2">
+        <v>45203.90577164619</v>
+      </c>
+      <c r="G137" s="2">
+        <v>45234.905771647638</v>
+      </c>
+      <c r="H137" t="s">
+        <v>11</v>
+      </c>
+      <c r="I137" t="s">
+        <v>17</v>
+      </c>
+      <c r="J137">
+        <v>6</v>
+      </c>
+      <c r="K137">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138">
+        <v>159400</v>
+      </c>
+      <c r="D138" t="s">
+        <v>27</v>
+      </c>
+      <c r="E138" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="2">
+        <v>45216.905771646198</v>
+      </c>
+      <c r="G138" s="2">
+        <v>45250.905771647653</v>
+      </c>
+      <c r="H138" t="s">
+        <v>11</v>
+      </c>
+      <c r="I138" t="s">
+        <v>12</v>
+      </c>
+      <c r="J138">
+        <v>29</v>
+      </c>
+      <c r="K138">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139">
+        <v>100400</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="2">
+        <v>45218.905771646248</v>
+      </c>
+      <c r="G139" s="2">
+        <v>45238.905771647682</v>
+      </c>
+      <c r="H139" t="s">
+        <v>11</v>
+      </c>
+      <c r="I139" t="s">
+        <v>21</v>
+      </c>
+      <c r="J139">
+        <v>25</v>
+      </c>
+      <c r="K139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>130800</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="2">
+        <v>45204.905771646263</v>
+      </c>
+      <c r="G140" s="2">
+        <v>45243.905771647711</v>
+      </c>
+      <c r="H140" t="s">
+        <v>16</v>
+      </c>
+      <c r="I140" t="s">
+        <v>12</v>
+      </c>
+      <c r="J140">
+        <v>31</v>
+      </c>
+      <c r="K140">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>158700</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="2">
+        <v>45213.905771646278</v>
+      </c>
+      <c r="G141" s="2">
+        <v>45238.905771647733</v>
+      </c>
+      <c r="H141" t="s">
+        <v>16</v>
+      </c>
+      <c r="I141" t="s">
+        <v>21</v>
+      </c>
+      <c r="J141">
+        <v>35</v>
+      </c>
+      <c r="K141">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>23</v>
+      </c>
+      <c r="C142">
+        <v>189800</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="2">
+        <v>45218.905771646307</v>
+      </c>
+      <c r="G142" s="2">
+        <v>45236.90577164774</v>
+      </c>
+      <c r="H142" t="s">
+        <v>16</v>
+      </c>
+      <c r="I142" t="s">
+        <v>21</v>
+      </c>
+      <c r="J142">
+        <v>24</v>
+      </c>
+      <c r="K142">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143">
+        <v>110100</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="2">
+        <v>45203.905771646321</v>
+      </c>
+      <c r="G143" s="2">
+        <v>45245.905771647747</v>
+      </c>
+      <c r="H143" t="s">
+        <v>16</v>
+      </c>
+      <c r="I143" t="s">
+        <v>21</v>
+      </c>
+      <c r="J143">
+        <v>8</v>
+      </c>
+      <c r="K143">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144">
+        <v>170900</v>
+      </c>
+      <c r="D144" t="s">
+        <v>24</v>
+      </c>
+      <c r="E144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="2">
+        <v>45205.905771646401</v>
+      </c>
+      <c r="G144" s="2">
+        <v>45258.905771647849</v>
+      </c>
+      <c r="H144" t="s">
+        <v>11</v>
+      </c>
+      <c r="I144" t="s">
+        <v>12</v>
+      </c>
+      <c r="J144">
+        <v>43</v>
+      </c>
+      <c r="K144">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>147900</v>
+      </c>
+      <c r="D145" t="s">
+        <v>24</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="2">
+        <v>45205.905771646459</v>
+      </c>
+      <c r="G145" s="2">
+        <v>45239.905771647907</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+      <c r="I145" t="s">
+        <v>12</v>
+      </c>
+      <c r="J145">
+        <v>7</v>
+      </c>
+      <c r="K145">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>139000</v>
+      </c>
+      <c r="D146" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146" s="2">
+        <v>45218.905771646467</v>
+      </c>
+      <c r="G146" s="2">
+        <v>45256.905771647907</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+      <c r="I146" t="s">
+        <v>12</v>
+      </c>
+      <c r="J146">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>173300</v>
+      </c>
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="2">
+        <v>45217.905771646481</v>
+      </c>
+      <c r="G147" s="2">
+        <v>45236.905771647929</v>
+      </c>
+      <c r="H147" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" t="s">
+        <v>12</v>
+      </c>
+      <c r="J147">
+        <v>36</v>
+      </c>
+      <c r="K147">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>133300</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="2">
+        <v>45220.905771646503</v>
+      </c>
+      <c r="G148" s="2">
+        <v>45235.905771647936</v>
+      </c>
+      <c r="H148" t="s">
+        <v>16</v>
+      </c>
+      <c r="I148" t="s">
+        <v>17</v>
+      </c>
+      <c r="J148">
+        <v>6</v>
+      </c>
+      <c r="K148">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149">
+        <v>138400</v>
+      </c>
+      <c r="D149" t="s">
+        <v>28</v>
+      </c>
+      <c r="E149" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="2">
+        <v>45217.90577164654</v>
+      </c>
+      <c r="G149" s="2">
+        <v>45229.905771647987</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+      <c r="I149" t="s">
+        <v>17</v>
+      </c>
+      <c r="J149">
+        <v>18</v>
+      </c>
+      <c r="K149">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>189100</v>
+      </c>
+      <c r="D150" t="s">
+        <v>27</v>
+      </c>
+      <c r="E150" t="s">
+        <v>9</v>
+      </c>
+      <c r="F150" s="2">
+        <v>45216.905771646547</v>
+      </c>
+      <c r="G150" s="2">
+        <v>45255.905771647987</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+      <c r="I150" t="s">
+        <v>21</v>
+      </c>
+      <c r="J150">
+        <v>24</v>
+      </c>
+      <c r="K150">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151">
+        <v>175000</v>
+      </c>
+      <c r="D151" t="s">
+        <v>27</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="2">
+        <v>45203.905771646598</v>
+      </c>
+      <c r="G151" s="2">
+        <v>45256.905771648053</v>
+      </c>
+      <c r="H151" t="s">
+        <v>16</v>
+      </c>
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151">
+        <v>35</v>
+      </c>
+      <c r="K151">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>164500</v>
+      </c>
+      <c r="D152" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="2">
+        <v>45213.9057716467</v>
+      </c>
+      <c r="G152" s="2">
+        <v>45256.905771648133</v>
+      </c>
+      <c r="H152" t="s">
+        <v>11</v>
+      </c>
+      <c r="I152" t="s">
+        <v>12</v>
+      </c>
+      <c r="J152">
+        <v>5</v>
+      </c>
+      <c r="K152">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>106600</v>
+      </c>
+      <c r="D153" t="s">
+        <v>24</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="2">
+        <v>45209.905771646707</v>
+      </c>
+      <c r="G153" s="2">
+        <v>45247.905771648147</v>
+      </c>
+      <c r="H153" t="s">
+        <v>16</v>
+      </c>
+      <c r="I153" t="s">
+        <v>17</v>
+      </c>
+      <c r="J153">
+        <v>22</v>
+      </c>
+      <c r="K153">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>22</v>
+      </c>
+      <c r="C154">
+        <v>124700</v>
+      </c>
+      <c r="D154" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="2">
+        <v>45222.905771646721</v>
+      </c>
+      <c r="G154" s="2">
+        <v>45229.905771648169</v>
+      </c>
+      <c r="H154" t="s">
+        <v>16</v>
+      </c>
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154">
+        <v>26</v>
+      </c>
+      <c r="K154">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155">
+        <v>174600</v>
+      </c>
+      <c r="D155" t="s">
+        <v>28</v>
+      </c>
+      <c r="E155" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="2">
+        <v>45210.905771646743</v>
+      </c>
+      <c r="G155" s="2">
+        <v>45250.905771648191</v>
+      </c>
+      <c r="H155" t="s">
+        <v>16</v>
+      </c>
+      <c r="I155" t="s">
+        <v>12</v>
+      </c>
+      <c r="J155">
+        <v>47</v>
+      </c>
+      <c r="K155">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>22</v>
+      </c>
+      <c r="C156">
+        <v>142900</v>
+      </c>
+      <c r="D156" t="s">
+        <v>28</v>
+      </c>
+      <c r="E156" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="2">
+        <v>45219.905771646751</v>
+      </c>
+      <c r="G156" s="2">
+        <v>45245.905771648213</v>
+      </c>
+      <c r="H156" t="s">
+        <v>16</v>
+      </c>
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156">
+        <v>19</v>
+      </c>
+      <c r="K156">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>137700</v>
+      </c>
+      <c r="D157" t="s">
+        <v>25</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="2">
+        <v>45222.905771646772</v>
+      </c>
+      <c r="G157" s="2">
+        <v>45229.90577164822</v>
+      </c>
+      <c r="H157" t="s">
+        <v>11</v>
+      </c>
+      <c r="I157" t="s">
+        <v>21</v>
+      </c>
+      <c r="J157">
+        <v>41</v>
+      </c>
+      <c r="K157">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>184900</v>
+      </c>
+      <c r="D158" t="s">
+        <v>25</v>
+      </c>
+      <c r="E158" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="2">
+        <v>45225.905771646787</v>
+      </c>
+      <c r="G158" s="2">
+        <v>45258.905771648249</v>
+      </c>
+      <c r="H158" t="s">
+        <v>11</v>
+      </c>
+      <c r="I158" t="s">
+        <v>12</v>
+      </c>
+      <c r="J158">
+        <v>24</v>
+      </c>
+      <c r="K158">
         <v>849</v>
       </c>
     </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>175700</v>
+      </c>
+      <c r="D159" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="2">
+        <v>45212.905771646852</v>
+      </c>
+      <c r="G159" s="2">
+        <v>45249.905771648308</v>
+      </c>
+      <c r="H159" t="s">
+        <v>16</v>
+      </c>
+      <c r="I159" t="s">
+        <v>21</v>
+      </c>
+      <c r="J159">
+        <v>32</v>
+      </c>
+      <c r="K159">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>130500</v>
+      </c>
+      <c r="D160" t="s">
+        <v>28</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="2">
+        <v>45208.905771646867</v>
+      </c>
+      <c r="G160" s="2">
+        <v>45242.905771648322</v>
+      </c>
+      <c r="H160" t="s">
+        <v>11</v>
+      </c>
+      <c r="I160" t="s">
+        <v>21</v>
+      </c>
+      <c r="J160">
+        <v>27</v>
+      </c>
+      <c r="K160">
+        <v>305</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="B1:K13" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:K160" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>